--- a/Importacao/Modelos/Produtos.xlsx
+++ b/Importacao/Modelos/Produtos.xlsx
@@ -9,21 +9,22 @@
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId4"/>
+    <sheet name="Plan2" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1732840314" val="1068" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1732840314" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1732840314" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1732840314"/>
+      <pm:revision xmlns:pm="smNativeData" day="1732933387" val="1068" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1732933387" showFormulas="1" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1732933387" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1732933387"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="118">
   <si>
     <t>Produtos</t>
   </si>
@@ -43,7 +44,16 @@
     <t>Caracteristicas</t>
   </si>
   <si>
-    <t>Peso</t>
+    <t>Nr. peças</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>Marca</t>
+  </si>
+  <si>
+    <t>Usado como</t>
   </si>
   <si>
     <t>Caneta esferografica</t>
@@ -64,10 +74,16 @@
     <t>Caixa com 10 unidades</t>
   </si>
   <si>
+    <t>a</t>
+  </si>
+  <si>
     <t>Notebook</t>
   </si>
   <si>
     <t>Caixa com 30 unidades</t>
+  </si>
+  <si>
+    <t>b</t>
   </si>
   <si>
     <t>BICICLETA CALOI</t>
@@ -386,7 +402,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1732840314" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1732933387" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -401,7 +417,7 @@
       <sz val="12"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1732840314" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1732933387" ulstyle="none" kern="1">
             <pm:latin face="Arial Black" sz="240" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -417,7 +433,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1732840314" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1732933387" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -432,7 +448,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1732840314" fgClr="C0C0C0" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1732933387" fgClr="C0C0C0" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -447,7 +463,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1732840314" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1732933387" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -469,7 +485,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1732840314" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1732933387" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -480,7 +496,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1732840314" type="1" fgLvl="38" fgClr="0000FFFF" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1732933387" type="1" fgLvl="38" fgClr="0000FFFF" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -491,7 +507,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1732840314" type="1" fgLvl="64" fgClr="0000FF00" bgLvl="36" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1732933387" type="1" fgLvl="64" fgClr="0000FF00" bgLvl="36" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -502,7 +518,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1732840314" type="1" fgLvl="76" fgClr="000000FF" bgLvl="24" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1732933387" type="1" fgLvl="76" fgClr="000000FF" bgLvl="24" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -513,7 +529,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1732840314" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1732933387" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -535,7 +551,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1732840314"/>
+          <pm:border xmlns:pm="smNativeData" id="1732933387"/>
         </ext>
       </extLst>
     </border>
@@ -554,7 +570,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1732840314"/>
+          <pm:border xmlns:pm="smNativeData" id="1732933387"/>
         </ext>
       </extLst>
     </border>
@@ -573,7 +589,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1732840314"/>
+          <pm:border xmlns:pm="smNativeData" id="1732933387"/>
         </ext>
       </extLst>
     </border>
@@ -592,7 +608,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1732840314"/>
+          <pm:border xmlns:pm="smNativeData" id="1732933387"/>
         </ext>
       </extLst>
     </border>
@@ -611,7 +627,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1732840314"/>
+          <pm:border xmlns:pm="smNativeData" id="1732933387"/>
         </ext>
       </extLst>
     </border>
@@ -630,7 +646,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1732840314"/>
+          <pm:border xmlns:pm="smNativeData" id="1732933387"/>
         </ext>
       </extLst>
     </border>
@@ -659,10 +675,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1732840314" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1732933387" count="1">
         <pm:charStyle name="Normal" fontId="0"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1732840314" count="8">
+      <pm:colors xmlns:pm="smNativeData" id="1732933387" count="13">
         <pm:color name="Cor 24" rgb="800101"/>
         <pm:color name="Cor 25" rgb="9EFF9E"/>
         <pm:color name="Cor 26" rgb="5CFFFF"/>
@@ -671,6 +687,11 @@
         <pm:color name="Cor 29" rgb="018001"/>
         <pm:color name="Cor 30" rgb="5CFF5C"/>
         <pm:color name="Cor 31" rgb="3D3DFF"/>
+        <pm:color name="Cor 32" rgb="95B3D7"/>
+        <pm:color name="Cor 33" rgb="DCE6F1"/>
+        <pm:color name="Cor 34" rgb="D8D8D8"/>
+        <pm:color name="Cor 35" rgb="BFBFBF"/>
+        <pm:color name="Cor 36" rgb="4F81BD"/>
       </pm:colors>
     </ext>
   </extLst>
@@ -935,8 +956,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A1:X110"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="E104" sqref="E104"/>
+    <sheetView showFormulas="1" showRowColHeaders="0" tabSelected="1" view="normal" topLeftCell="D1" workbookViewId="0">
+      <pane xSplit="4" ySplit="5" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
@@ -945,6 +967,7 @@
     <col min="2" max="2" width="54.864865" customWidth="1"/>
     <col min="3" max="3" width="38.243243" customWidth="1"/>
     <col min="4" max="4" width="35.000000" customWidth="1"/>
+    <col min="8" max="8" width="14.864865" customWidth="1"/>
     <col min="20" max="20" width="20.675676" customWidth="1"/>
     <col min="21" max="21" width="32.162162" customWidth="1"/>
   </cols>
@@ -1018,7 +1041,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:5" s="4" customFormat="1">
+    <row r="6" spans="1:8" s="4" customFormat="1">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
@@ -1033,6 +1056,15 @@
       </c>
       <c r="E6" s="4" t="s">
         <v>6</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -1040,10 +1072,10 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
@@ -1056,10 +1088,10 @@
         <v>87</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="T8" s="8"/>
       <c r="U8" s="8"/>
@@ -1072,10 +1104,13 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="J9" t="s">
+        <v>16</v>
       </c>
       <c r="T9" s="8"/>
       <c r="U9" s="8"/>
@@ -1088,10 +1123,13 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="J10" t="s">
+        <v>19</v>
       </c>
       <c r="T10" s="8"/>
       <c r="U10" s="8"/>
@@ -1104,13 +1142,13 @@
         <v>81</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1126,13 +1164,13 @@
         <v>1385</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1148,13 +1186,13 @@
         <v>83</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1170,13 +1208,13 @@
         <v>84</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1192,13 +1230,13 @@
         <v>85</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1214,13 +1252,13 @@
         <v>86</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1231,13 +1269,13 @@
         <v>87</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1248,13 +1286,13 @@
         <v>88</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1265,13 +1303,13 @@
         <v>89</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1282,13 +1320,13 @@
         <v>90</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1299,13 +1337,13 @@
         <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1316,13 +1354,13 @@
         <v>92</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -1333,13 +1371,13 @@
         <v>95</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1350,13 +1388,13 @@
         <v>96</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -1367,13 +1405,13 @@
         <v>97</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D25" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1384,13 +1422,13 @@
         <v>99</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D26" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -1401,13 +1439,13 @@
         <v>100</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D27" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -1418,13 +1456,13 @@
         <v>101</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D28" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -1435,13 +1473,13 @@
         <v>102</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D29" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -1452,13 +1490,13 @@
         <v>103</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D30" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -1469,13 +1507,13 @@
         <v>105</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D31" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -1486,13 +1524,13 @@
         <v>1386</v>
       </c>
       <c r="B32" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D32" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -1503,13 +1541,13 @@
         <v>1387</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D33" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -1520,13 +1558,13 @@
         <v>1388</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C34" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D34" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -1537,13 +1575,13 @@
         <v>1389</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D35" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -1554,13 +1592,13 @@
         <v>1390</v>
       </c>
       <c r="B36" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C36" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D36" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -1571,13 +1609,13 @@
         <v>1391</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C37" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D37" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -1588,13 +1626,13 @@
         <v>1392</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C38" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D38" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -1605,13 +1643,13 @@
         <v>1393</v>
       </c>
       <c r="B39" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C39" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D39" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -1622,13 +1660,13 @@
         <v>1394</v>
       </c>
       <c r="B40" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C40" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D40" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -1639,13 +1677,13 @@
         <v>1395</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C41" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D41" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -1656,13 +1694,13 @@
         <v>1396</v>
       </c>
       <c r="B42" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C42" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D42" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -1673,13 +1711,13 @@
         <v>1397</v>
       </c>
       <c r="B43" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C43" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D43" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -1690,13 +1728,13 @@
         <v>1398</v>
       </c>
       <c r="B44" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C44" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D44" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -1707,13 +1745,13 @@
         <v>1399</v>
       </c>
       <c r="B45" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C45" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D45" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -1724,13 +1762,13 @@
         <v>1400</v>
       </c>
       <c r="B46" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C46" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D46" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -1741,13 +1779,13 @@
         <v>1401</v>
       </c>
       <c r="B47" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C47" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D47" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
@@ -1758,13 +1796,13 @@
         <v>1402</v>
       </c>
       <c r="B48" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C48" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D48" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
@@ -1775,13 +1813,13 @@
         <v>1403</v>
       </c>
       <c r="B49" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C49" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D49" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -1792,13 +1830,13 @@
         <v>1404</v>
       </c>
       <c r="B50" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C50" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D50" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
@@ -1809,13 +1847,13 @@
         <v>1405</v>
       </c>
       <c r="B51" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C51" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D51" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
@@ -1826,13 +1864,13 @@
         <v>1406</v>
       </c>
       <c r="B52" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C52" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D52" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
@@ -1843,13 +1881,13 @@
         <v>1407</v>
       </c>
       <c r="B53" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C53" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D53" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
@@ -1860,13 +1898,13 @@
         <v>1408</v>
       </c>
       <c r="B54" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C54" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D54" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
@@ -1877,13 +1915,13 @@
         <v>1409</v>
       </c>
       <c r="B55" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C55" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D55" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
@@ -1894,13 +1932,13 @@
         <v>1410</v>
       </c>
       <c r="B56" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C56" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D56" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
@@ -1911,13 +1949,13 @@
         <v>1411</v>
       </c>
       <c r="B57" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C57" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D57" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
@@ -1928,13 +1966,13 @@
         <v>1412</v>
       </c>
       <c r="B58" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C58" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D58" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
@@ -1945,13 +1983,13 @@
         <v>1413</v>
       </c>
       <c r="B59" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C59" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D59" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
@@ -1962,13 +2000,13 @@
         <v>1414</v>
       </c>
       <c r="B60" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C60" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D60" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
@@ -1979,13 +2017,13 @@
         <v>1415</v>
       </c>
       <c r="B61" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C61" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D61" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
@@ -1996,13 +2034,13 @@
         <v>1341</v>
       </c>
       <c r="B62" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C62" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D62" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
@@ -2013,13 +2051,13 @@
         <v>1342</v>
       </c>
       <c r="B63" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C63" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D63" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
@@ -2030,13 +2068,13 @@
         <v>1343</v>
       </c>
       <c r="B64" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C64" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D64" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
@@ -2047,13 +2085,13 @@
         <v>1344</v>
       </c>
       <c r="B65" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C65" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D65" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
@@ -2064,13 +2102,13 @@
         <v>1345</v>
       </c>
       <c r="B66" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C66" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D66" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
@@ -2081,13 +2119,13 @@
         <v>1346</v>
       </c>
       <c r="B67" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C67" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D67" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
@@ -2098,13 +2136,13 @@
         <v>1347</v>
       </c>
       <c r="B68" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C68" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D68" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
@@ -2115,13 +2153,13 @@
         <v>1348</v>
       </c>
       <c r="B69" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C69" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D69" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
@@ -2132,13 +2170,13 @@
         <v>1349</v>
       </c>
       <c r="B70" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C70" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D70" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
@@ -2149,13 +2187,13 @@
         <v>1350</v>
       </c>
       <c r="B71" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C71" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D71" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
@@ -2166,13 +2204,13 @@
         <v>1351</v>
       </c>
       <c r="B72" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C72" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D72" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
@@ -2183,13 +2221,13 @@
         <v>1352</v>
       </c>
       <c r="B73" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C73" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D73" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
@@ -2200,13 +2238,13 @@
         <v>1353</v>
       </c>
       <c r="B74" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C74" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D74" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
@@ -2217,13 +2255,13 @@
         <v>1354</v>
       </c>
       <c r="B75" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C75" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D75" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
@@ -2234,13 +2272,13 @@
         <v>1355</v>
       </c>
       <c r="B76" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C76" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D76" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
@@ -2251,13 +2289,13 @@
         <v>1356</v>
       </c>
       <c r="B77" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C77" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D77" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
@@ -2268,13 +2306,13 @@
         <v>1357</v>
       </c>
       <c r="B78" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C78" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D78" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E78" t="n">
         <v>0</v>
@@ -2285,13 +2323,13 @@
         <v>1358</v>
       </c>
       <c r="B79" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C79" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D79" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
@@ -2302,13 +2340,13 @@
         <v>1359</v>
       </c>
       <c r="B80" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C80" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D80" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
@@ -2319,13 +2357,13 @@
         <v>1360</v>
       </c>
       <c r="B81" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C81" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D81" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
@@ -2336,13 +2374,13 @@
         <v>1361</v>
       </c>
       <c r="B82" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C82" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D82" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
@@ -2353,13 +2391,13 @@
         <v>1362</v>
       </c>
       <c r="B83" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C83" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D83" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
@@ -2370,13 +2408,13 @@
         <v>1363</v>
       </c>
       <c r="B84" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C84" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D84" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E84" t="n">
         <v>0</v>
@@ -2387,13 +2425,13 @@
         <v>1364</v>
       </c>
       <c r="B85" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C85" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D85" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E85" t="n">
         <v>0</v>
@@ -2404,13 +2442,13 @@
         <v>1365</v>
       </c>
       <c r="B86" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C86" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D86" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E86" t="n">
         <v>0</v>
@@ -2421,13 +2459,13 @@
         <v>1366</v>
       </c>
       <c r="B87" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C87" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D87" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E87" t="n">
         <v>0</v>
@@ -2438,13 +2476,13 @@
         <v>1367</v>
       </c>
       <c r="B88" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C88" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D88" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E88" t="n">
         <v>0</v>
@@ -2455,13 +2493,13 @@
         <v>1368</v>
       </c>
       <c r="B89" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C89" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D89" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E89" t="n">
         <v>0</v>
@@ -2472,13 +2510,13 @@
         <v>1369</v>
       </c>
       <c r="B90" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C90" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D90" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
@@ -2489,13 +2527,13 @@
         <v>1370</v>
       </c>
       <c r="B91" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C91" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D91" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E91" t="n">
         <v>0</v>
@@ -2506,13 +2544,13 @@
         <v>1371</v>
       </c>
       <c r="B92" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C92" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D92" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E92" t="n">
         <v>0</v>
@@ -2523,13 +2561,13 @@
         <v>1372</v>
       </c>
       <c r="B93" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C93" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D93" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E93" t="n">
         <v>0</v>
@@ -2540,13 +2578,13 @@
         <v>1373</v>
       </c>
       <c r="B94" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C94" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D94" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E94" t="n">
         <v>0</v>
@@ -2557,13 +2595,13 @@
         <v>1374</v>
       </c>
       <c r="B95" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C95" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D95" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E95" t="n">
         <v>0</v>
@@ -2574,13 +2612,13 @@
         <v>1375</v>
       </c>
       <c r="B96" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C96" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D96" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
@@ -2591,13 +2629,13 @@
         <v>1376</v>
       </c>
       <c r="B97" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C97" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D97" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
@@ -2608,13 +2646,13 @@
         <v>1377</v>
       </c>
       <c r="B98" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C98" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D98" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E98" t="n">
         <v>0</v>
@@ -2625,13 +2663,13 @@
         <v>1378</v>
       </c>
       <c r="B99" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C99" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D99" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E99" t="n">
         <v>0</v>
@@ -2642,13 +2680,13 @@
         <v>1379</v>
       </c>
       <c r="B100" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C100" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D100" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
@@ -2659,13 +2697,13 @@
         <v>1380</v>
       </c>
       <c r="B101" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C101" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D101" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
@@ -2676,13 +2714,13 @@
         <v>1381</v>
       </c>
       <c r="B102" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C102" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D102" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E102" t="n">
         <v>0</v>
@@ -2693,13 +2731,13 @@
         <v>1382</v>
       </c>
       <c r="B103" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C103" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D103" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E103" t="n">
         <v>0</v>
@@ -2710,13 +2748,13 @@
         <v>1383</v>
       </c>
       <c r="B104" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C104" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D104" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E104" t="n">
         <v>1383</v>
@@ -2727,13 +2765,13 @@
         <v>1384</v>
       </c>
       <c r="B105" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C105" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D105" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E105" t="n">
         <v>0</v>
@@ -2744,13 +2782,13 @@
         <v>1340</v>
       </c>
       <c r="B106" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C106" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D106" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
@@ -2761,13 +2799,13 @@
         <v>1294</v>
       </c>
       <c r="B107" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C107" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D107" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E107" t="n">
         <v>0</v>
@@ -2778,13 +2816,13 @@
         <v>1295</v>
       </c>
       <c r="B108" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C108" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D108" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E108" t="n">
         <v>0</v>
@@ -2795,13 +2833,13 @@
         <v>1296</v>
       </c>
       <c r="B109" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C109" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D109" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E109" t="n">
         <v>0</v>
@@ -2812,13 +2850,13 @@
         <v>1297</v>
       </c>
       <c r="B110" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C110" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D110" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E110" t="n">
         <v>0</v>
@@ -2832,7 +2870,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1732840314" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1732933387" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2841,16 +2879,56 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1732840314" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1732840314" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1732840314" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1732840314" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1732933387" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1732933387" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1732933387" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1732933387" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1732840314" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1732933387" outlineProtect="1" showHorizontalRuler="0" showVerticalRuler="0" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="1" view="normal" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
+  <sheetData/>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1732933387" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="0.787500" right="0.787500" top="0.787500" bottom="0.787500" header="0.393750" footer="0.393750"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1732933387" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1732933387" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1732933387" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1732933387" Id="1" type="0" value="0"/>
+      </ext>
+    </extLst>
+  </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1732933387" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
